--- a/medicine/Pharmacie/Susana_Gallardo_Torrededia/Susana_Gallardo_Torrededia.xlsx
+++ b/medicine/Pharmacie/Susana_Gallardo_Torrededia/Susana_Gallardo_Torrededia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Susana Gallardo Torrededia, née le 2 décembre 1964 à Barcelone, est une millionnaire espagnole, héritière de l'entreprise pharmaceutique Almirall.
 </t>
@@ -511,12 +523,14 @@
           <t>Vie personnelle</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est née le 2 décembre 1964 à Barcelone[1]. Elle est la fille de María Teresa Torrededía et d'Antonio Gallardo Ballart. Son grand-père Antonio Gallardo Carreras est le fondateur d'Almirall[2].
-Elle a trois enfants : Gabriela, Alberto et Marta avec son mari Alberto Palatchi (es)[3],[4].
-En 2016, après son divorce avec Alberto Palatchi Ribera, le fondateur de Pronovias (es), 26e fortune d'Espagne[5], elle quitte ses fonctions de vice-présidente de l'entreprise[2],[6].
-Membre de la haute bourgeoisie barcelonaise, elle épouse l'homme politique franco-espagnol Manuel Valls le 14 septembre 2019[2],[7].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est née le 2 décembre 1964 à Barcelone. Elle est la fille de María Teresa Torrededía et d'Antonio Gallardo Ballart. Son grand-père Antonio Gallardo Carreras est le fondateur d'Almirall.
+Elle a trois enfants : Gabriela, Alberto et Marta avec son mari Alberto Palatchi (es),.
+En 2016, après son divorce avec Alberto Palatchi Ribera, le fondateur de Pronovias (es), 26e fortune d'Espagne, elle quitte ses fonctions de vice-présidente de l'entreprise,.
+Membre de la haute bourgeoisie barcelonaise, elle épouse l'homme politique franco-espagnol Manuel Valls le 14 septembre 2019,.
 </t>
         </is>
       </c>
@@ -545,10 +559,12 @@
           <t>Vie professionnelle</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Susana Gallardo Torrededia étudie les sciences politiques et économiques à l'université d'Oxford et est diplômée en banque et finance de la City of London Polytechnic[8].
-Elle est membre du conseil d'administration d'Abertis, Bank of California, CaixaBank et Criteria Corp[8],[7].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Susana Gallardo Torrededia étudie les sciences politiques et économiques à l'université d'Oxford et est diplômée en banque et finance de la City of London Polytechnic.
+Elle est membre du conseil d'administration d'Abertis, Bank of California, CaixaBank et Criteria Corp,.
 </t>
         </is>
       </c>
@@ -577,9 +593,11 @@
           <t>Prise de position</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle se fait connaître lors du référendum de 2017 sur l'indépendance de Catalogne pour sa position hostile à l'indépendance[2],[8],[9]. Elle sort exceptionnellement de sa réserve habituelle et annonce dans une vidéo du 1er octobre 2017 avoir voté à 4 reprises pour discréditer les résultats du référendum[7].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle se fait connaître lors du référendum de 2017 sur l'indépendance de Catalogne pour sa position hostile à l'indépendance. Elle sort exceptionnellement de sa réserve habituelle et annonce dans une vidéo du 1er octobre 2017 avoir voté à 4 reprises pour discréditer les résultats du référendum.
 </t>
         </is>
       </c>
